--- a/output/ConceptMapHRVToOMOP.xlsx
+++ b/output/ConceptMapHRVToOMOP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -128,22 +128,22 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
     <t>http://loinc.org</t>
   </si>
   <si>
-    <t>Target</t>
+    <t/>
   </si>
   <si>
     <t>http://athena.ohdsi.org/search-terms/terms</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>80404-7</t>
@@ -328,7 +328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -487,22 +487,6 @@
         <v>31</v>
       </c>
       <c r="B19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -522,33 +506,33 @@
         <v>32</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>35</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -620,16 +604,16 @@
         <v>32</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -637,16 +621,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>35</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
